--- a/data/trans_dic/P62A$viudedad-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Provincia-trans_dic.xlsx
@@ -711,31 +711,31 @@
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.05969823896465476</v>
+        <v>0.05598565523033282</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.370906536779379</v>
+        <v>0.3851477957213553</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1791505459095955</v>
+        <v>0.1675938205598933</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09574373986974644</v>
+        <v>0.1052989694175435</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01538441475331931</v>
+        <v>0.01516656352533167</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.141782447432996</v>
+        <v>0.1400154247738587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07749324898851348</v>
+        <v>0.0820479866011409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05171948158305317</v>
+        <v>0.05012639684559922</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0540289931126464</v>
+        <v>0.04796289715980222</v>
       </c>
     </row>
     <row r="6">
@@ -749,31 +749,31 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.327953334777283</v>
+        <v>0.3083887556304712</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7083983712299385</v>
+        <v>0.7165882133441126</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4010213440707239</v>
+        <v>0.3896465830837874</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3262314238430411</v>
+        <v>0.3374988773334274</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1391468425232743</v>
+        <v>0.1396773453583696</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3069674247171129</v>
+        <v>0.3265079966494404</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1982187004640743</v>
+        <v>0.1992587695670801</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1747341580957945</v>
+        <v>0.1725555592966974</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1779279121437683</v>
+        <v>0.176948649782016</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1766239931623413</v>
+        <v>0.1766239931623414</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.5750237107828039</v>
@@ -837,31 +837,31 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.1174751507806514</v>
+        <v>0.1128416612475308</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4628422153281276</v>
+        <v>0.4609063394047007</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4185976302597766</v>
+        <v>0.4160762672572566</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4897916805572456</v>
+        <v>0.476611730749476</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05154833423840806</v>
+        <v>0.05244518088577937</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1723459662868937</v>
+        <v>0.1704145702765276</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1606287488250919</v>
+        <v>0.1607055943278757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1666393340676988</v>
+        <v>0.1716286497671951</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09945335482643579</v>
+        <v>0.09647622480627134</v>
       </c>
     </row>
     <row r="9">
@@ -873,35 +873,35 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.03754074143684712</v>
+        <v>0.03022333057722651</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.2535883618953826</v>
+        <v>0.2521036779104178</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.681804477742143</v>
+        <v>0.6825253209241633</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6365340227498355</v>
+        <v>0.6300596063603563</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.69465733472005</v>
+        <v>0.6992553712879328</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1422878612375481</v>
+        <v>0.1349853489545517</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2917697841493146</v>
+        <v>0.2874006143220605</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2808032996494277</v>
+        <v>0.2789812781045506</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.286853857975376</v>
+        <v>0.2912828594891704</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1840749365234985</v>
+        <v>0.18061044272709</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.257776093510808</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0958009842300936</v>
+        <v>0.09580098423009363</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.262082252571623</v>
@@ -949,7 +949,7 @@
         <v>0.1267668695618443</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2145216967681637</v>
+        <v>0.2145216967681636</v>
       </c>
     </row>
     <row r="11">
@@ -967,31 +967,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2501083522017739</v>
+        <v>0.252887724343425</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4355044354396225</v>
+        <v>0.4367034948513729</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4289151130037868</v>
+        <v>0.4168306291277504</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1571602892238233</v>
+        <v>0.1536354257219428</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05587876999201188</v>
+        <v>0.05969801361197956</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1971848891962413</v>
+        <v>0.1914873918357126</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1931293621877571</v>
+        <v>0.2006649729913207</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08157106827777166</v>
+        <v>0.07956932624844047</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1660864338545268</v>
+        <v>0.1673354288166023</v>
       </c>
     </row>
     <row r="12">
@@ -1003,37 +1003,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.1209241533534361</v>
+        <v>0.120025264266296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06302903106871698</v>
+        <v>0.05287927208499405</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4088045247368926</v>
+        <v>0.4109023746477283</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6807458779334474</v>
+        <v>0.6795838280415427</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6534724589403882</v>
+        <v>0.6509262164791935</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3725575921363747</v>
+        <v>0.3718370222841089</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1450198612183345</v>
+        <v>0.1563169657421985</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3438102985955185</v>
+        <v>0.3431422038729423</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.350027405268153</v>
+        <v>0.345134983903859</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1834378533359375</v>
+        <v>0.1824714254591482</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.264191762433792</v>
+        <v>0.2641923788599028</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.4158607693353491</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05316759964104587</v>
+        <v>0.05316759964104588</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2094935569557217</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3166294082011362</v>
+        <v>0.3225054031355983</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3023337894422166</v>
+        <v>0.3083955319910008</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2998607693190794</v>
+        <v>0.290707520715318</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02454298780682537</v>
+        <v>0.024373842624181</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1485691357397396</v>
+        <v>0.1487535273597211</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1478297019984881</v>
+        <v>0.1476337028070276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1255804025577284</v>
+        <v>0.1262161349746382</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01584979280493849</v>
+        <v>0.01468433528734397</v>
       </c>
     </row>
     <row r="15">
@@ -1133,31 +1133,31 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.06084138085841427</v>
+        <v>0.06817157473160065</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5586845404507552</v>
+        <v>0.562289184657202</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4990018759574238</v>
+        <v>0.5030380967492203</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5406466698997799</v>
+        <v>0.5384710465078832</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.100199062996751</v>
+        <v>0.09834470769337676</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2771761026885352</v>
+        <v>0.284259697466695</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.260605385315887</v>
+        <v>0.26418041175962</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2520391612917508</v>
+        <v>0.2573724890457371</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05862652790008314</v>
+        <v>0.06151155313607799</v>
       </c>
     </row>
     <row r="16">
@@ -1193,7 +1193,7 @@
         <v>0.1964006257618297</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1007835703820172</v>
+        <v>0.1007835703820171</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1741552727389022</v>
@@ -1219,31 +1219,31 @@
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.05382167411274583</v>
+        <v>0.05728463027910557</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2383104490701852</v>
+        <v>0.2384003999031997</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2120181462648602</v>
+        <v>0.2284012835156645</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09811645445677665</v>
+        <v>0.1099515104427044</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05399166190405687</v>
+        <v>0.05196602288627871</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09809856942005052</v>
+        <v>0.09855070372290978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09961747399105722</v>
+        <v>0.1037432128693324</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04594460131196265</v>
+        <v>0.04516481524229334</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06793463188759494</v>
+        <v>0.07279669787880118</v>
       </c>
     </row>
     <row r="18">
@@ -1257,31 +1257,31 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.222914434013232</v>
+        <v>0.2358769476355472</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5758424804113077</v>
+        <v>0.5760779477050735</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4940649512265821</v>
+        <v>0.5025875232699768</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3145923798980355</v>
+        <v>0.3271972410222894</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1675573108124749</v>
+        <v>0.1666145589010697</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2710635443813803</v>
+        <v>0.2706501262371346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2502989786095559</v>
+        <v>0.2543469828323959</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1564853950779187</v>
+        <v>0.1528262975814521</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1731316363135841</v>
+        <v>0.1714363919719002</v>
       </c>
     </row>
     <row r="19">
@@ -1345,31 +1345,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.1778506675223659</v>
+        <v>0.1763630509626574</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4346793700954164</v>
+        <v>0.4446026045892296</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.442597461179144</v>
+        <v>0.4528644463470625</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4129736362111989</v>
+        <v>0.4120712358372167</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07740366218571491</v>
+        <v>0.07856286564285317</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1821203490443005</v>
+        <v>0.1907632663644207</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1917944148876797</v>
+        <v>0.1925334908641113</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1514079607135802</v>
+        <v>0.146570514599444</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1514152098892576</v>
+        <v>0.1468164245935246</v>
       </c>
     </row>
     <row r="21">
@@ -1380,36 +1380,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08397958920142652</v>
+        <v>0.1006759450602265</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.3170966925795874</v>
+        <v>0.320549460758314</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7285599531762001</v>
+        <v>0.739276767631837</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6952811386015151</v>
+        <v>0.6961291568240819</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7351982243230002</v>
+        <v>0.7252870843379887</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2010777929128292</v>
+        <v>0.1988243383666446</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3544448658903478</v>
+        <v>0.3619626006190867</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3485559355031421</v>
+        <v>0.3439881742773732</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3091602439616155</v>
+        <v>0.3031384233553898</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2483086859578763</v>
+        <v>0.2464415614305684</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1206675986313784</v>
+        <v>0.1206675986313785</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.496422152452981</v>
@@ -1445,7 +1445,7 @@
         <v>0.3565310367867749</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.09735110633468383</v>
+        <v>0.0973511063346838</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2255474337001052</v>
@@ -1471,31 +1471,31 @@
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.07885181019490493</v>
+        <v>0.07904196907605129</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4078343842630832</v>
+        <v>0.3981185327029867</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3537854468927839</v>
+        <v>0.3594337322184528</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2729161143014649</v>
+        <v>0.2723023196842744</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06468341389359958</v>
+        <v>0.06449940158139915</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1754333785649599</v>
+        <v>0.1787668611965234</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1694123313987111</v>
+        <v>0.1661778727463253</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1295558102192683</v>
+        <v>0.1343505961581057</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08227739254644167</v>
+        <v>0.08039443894016157</v>
       </c>
     </row>
     <row r="24">
@@ -1509,31 +1509,31 @@
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.1686260824618448</v>
+        <v>0.1747162290306999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5823173275905049</v>
+        <v>0.5854567815796105</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.526888012181692</v>
+        <v>0.531216571610852</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4402162776031798</v>
+        <v>0.4453732259947594</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1399284721150604</v>
+        <v>0.1380532853013459</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2851305667008702</v>
+        <v>0.286987444190458</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2667667255340186</v>
+        <v>0.2657995010394054</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.22722850704327</v>
+        <v>0.2297236119718398</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1434275056695579</v>
+        <v>0.1425879888287218</v>
       </c>
     </row>
     <row r="25">
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1313262784749487</v>
+        <v>0.1313262784749488</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.4063593220988107</v>
@@ -1597,31 +1597,31 @@
       <c r="D26" s="5" t="inlineStr"/>
       <c r="E26" s="5" t="inlineStr"/>
       <c r="F26" s="5" t="n">
-        <v>0.09410583063977403</v>
+        <v>0.09039306585710276</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3226402930608532</v>
+        <v>0.3265217471134917</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.296623716996344</v>
+        <v>0.3069863093571824</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2346167141246729</v>
+        <v>0.2309218164798762</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03228462242842563</v>
+        <v>0.03370191570837036</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1352143302615308</v>
+        <v>0.1377803515384207</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1291841233950365</v>
+        <v>0.1275922270077378</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1067312409269938</v>
+        <v>0.105992797351174</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07112566087292151</v>
+        <v>0.07281051720567809</v>
       </c>
     </row>
     <row r="27">
@@ -1632,36 +1632,36 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03200468071329913</v>
+        <v>0.03437165213876723</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="n">
-        <v>0.180004230126839</v>
+        <v>0.1797095798373273</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5024390615591232</v>
+        <v>0.5064284445857334</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4622209614892183</v>
+        <v>0.4697171684367131</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3834635854685773</v>
+        <v>0.383821570914895</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09015320423158665</v>
+        <v>0.08985425325041875</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.227169198598407</v>
+        <v>0.2277945468884259</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2128163866705403</v>
+        <v>0.2116473817877875</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1820244397786945</v>
+        <v>0.1845560665106143</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1258339266366469</v>
+        <v>0.1266939256135095</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.133099822047573</v>
+        <v>0.1332956948280558</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3992711410524238</v>
+        <v>0.397207912069667</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3216843490575569</v>
+        <v>0.3210665372715517</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.068085688890598</v>
+        <v>0.06788268594634835</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1946335309514557</v>
+        <v>0.1926812353733689</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1809168995807804</v>
+        <v>0.1813541235031616</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1422545171796998</v>
+        <v>0.1429257416531619</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1069552107244587</v>
+        <v>0.1069449675918613</v>
       </c>
     </row>
     <row r="30">
@@ -1764,40 +1764,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.009528505820974182</v>
+        <v>0.01009954173770025</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01522916494479359</v>
+        <v>0.01285292768263695</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.005190194607655351</v>
+        <v>0.005216628027771099</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1787948652050609</v>
+        <v>0.1789659063550549</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4729422009320348</v>
+        <v>0.47278775187846</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3969721704478334</v>
+        <v>0.3974006502527034</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09944979418986008</v>
+        <v>0.09814593360435141</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2408313748449762</v>
+        <v>0.2411003927838093</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2216964280656009</v>
+        <v>0.2217693350566452</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.183413171121515</v>
+        <v>0.1821534292901136</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1344051647187526</v>
+        <v>0.1357049316735988</v>
       </c>
     </row>
     <row r="31">
@@ -2075,31 +2075,31 @@
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>1511</v>
+        <v>1417</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13174</v>
+        <v>13680</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12328</v>
+        <v>11533</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5264</v>
+        <v>5789</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12520</v>
+        <v>12364</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11228</v>
+        <v>11888</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5856</v>
+        <v>5676</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3062</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="7">
@@ -2113,31 +2113,31 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>8300</v>
+        <v>7805</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25161</v>
+        <v>25452</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27595</v>
+        <v>26813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17935</v>
+        <v>18554</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4364</v>
+        <v>4381</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>27106</v>
+        <v>28832</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>28721</v>
+        <v>28872</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>19785</v>
+        <v>19538</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10084</v>
+        <v>10028</v>
       </c>
     </row>
     <row r="8">
@@ -2245,31 +2245,31 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>16806</v>
+        <v>16143</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>36660</v>
+        <v>36507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>37207</v>
+        <v>36983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>44881</v>
+        <v>43673</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6546</v>
+        <v>6660</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34492</v>
+        <v>34105</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>35536</v>
+        <v>35553</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>40027</v>
+        <v>41226</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26857</v>
+        <v>26053</v>
       </c>
     </row>
     <row r="11">
@@ -2281,35 +2281,35 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4968</v>
+        <v>4000</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>36278</v>
+        <v>36066</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54003</v>
+        <v>54060</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>56578</v>
+        <v>56003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>63654</v>
+        <v>64075</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18069</v>
+        <v>17142</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>58392</v>
+        <v>57518</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>62122</v>
+        <v>61719</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>68903</v>
+        <v>69967</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>49709</v>
+        <v>48774</v>
       </c>
     </row>
     <row r="12">
@@ -2419,31 +2419,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22533</v>
+        <v>22783</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28945</v>
+        <v>29025</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32409</v>
+        <v>31496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12556</v>
+        <v>12275</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4811</v>
+        <v>5140</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27841</v>
+        <v>27036</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30477</v>
+        <v>31666</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13854</v>
+        <v>13514</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>29264</v>
+        <v>29484</v>
       </c>
     </row>
     <row r="15">
@@ -2455,34 +2455,34 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>9945</v>
+        <v>9871</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5669</v>
+        <v>4756</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36830</v>
+        <v>37019</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45245</v>
+        <v>45168</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49377</v>
+        <v>49185</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29765</v>
+        <v>29708</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12487</v>
+        <v>13460</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>48543</v>
+        <v>48449</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>55236</v>
+        <v>54464</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>31155</v>
+        <v>30990</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>46549</v>
@@ -2594,28 +2594,28 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20532</v>
+        <v>20913</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30446</v>
+        <v>31057</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23217</v>
+        <v>22508</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2112</v>
+        <v>2098</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20032</v>
+        <v>20056</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30022</v>
+        <v>29982</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>21848</v>
+        <v>21959</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2773</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="19">
@@ -2629,31 +2629,31 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>5410</v>
+        <v>6061</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36227</v>
+        <v>36461</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50251</v>
+        <v>50658</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41860</v>
+        <v>41692</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>8624</v>
+        <v>8464</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37372</v>
+        <v>38327</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>52925</v>
+        <v>53651</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>43850</v>
+        <v>44777</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>10258</v>
+        <v>10763</v>
       </c>
     </row>
     <row r="20">
@@ -2759,31 +2759,31 @@
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>1801</v>
+        <v>1917</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>8328</v>
+        <v>8331</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9969</v>
+        <v>10739</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5612</v>
+        <v>6289</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2336</v>
+        <v>2249</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>7869</v>
+        <v>7905</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>9660</v>
+        <v>10060</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5693</v>
+        <v>5597</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5212</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="23">
@@ -2797,31 +2797,31 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>7458</v>
+        <v>7892</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>20123</v>
+        <v>20132</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>23230</v>
+        <v>23631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>17994</v>
+        <v>18715</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7251</v>
+        <v>7210</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>21742</v>
+        <v>21709</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>24272</v>
+        <v>24665</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19391</v>
+        <v>18937</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>13284</v>
+        <v>13154</v>
       </c>
     </row>
     <row r="24">
@@ -2929,31 +2929,31 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>14065</v>
+        <v>13948</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20659</v>
+        <v>21131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>26604</v>
+        <v>27221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>18292</v>
+        <v>18252</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4745</v>
+        <v>4816</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>20168</v>
+        <v>21125</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>25783</v>
+        <v>25882</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>17901</v>
+        <v>17329</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>21256</v>
+        <v>20611</v>
       </c>
     </row>
     <row r="27">
@@ -2964,36 +2964,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5309</v>
+        <v>6364</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>25078</v>
+        <v>25351</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>34626</v>
+        <v>35136</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>41792</v>
+        <v>41843</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>32565</v>
+        <v>32126</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12326</v>
+        <v>12188</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>39252</v>
+        <v>40084</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>46856</v>
+        <v>46242</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>36553</v>
+        <v>35841</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>34859</v>
+        <v>34596</v>
       </c>
     </row>
     <row r="28">
@@ -3099,31 +3099,31 @@
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>15016</v>
+        <v>15052</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>48503</v>
+        <v>47347</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>53118</v>
+        <v>53966</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>41674</v>
+        <v>41580</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>10905</v>
+        <v>10874</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>45921</v>
+        <v>46793</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>52390</v>
+        <v>51390</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>39693</v>
+        <v>41162</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>29539</v>
+        <v>28863</v>
       </c>
     </row>
     <row r="31">
@@ -3137,31 +3137,31 @@
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>32111</v>
+        <v>33271</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>69253</v>
+        <v>69627</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>79108</v>
+        <v>79758</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>67221</v>
+        <v>68008</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>23591</v>
+        <v>23275</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>74634</v>
+        <v>75120</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>82496</v>
+        <v>82197</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>69617</v>
+        <v>70382</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>51493</v>
+        <v>51192</v>
       </c>
     </row>
     <row r="32">
@@ -3269,31 +3269,31 @@
       <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="6" t="inlineStr"/>
       <c r="F34" s="6" t="n">
-        <v>21089</v>
+        <v>20257</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>41509</v>
+        <v>42008</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>45933</v>
+        <v>47538</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>41978</v>
+        <v>41317</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>6462</v>
+        <v>6746</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>40131</v>
+        <v>40893</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>45155</v>
+        <v>44598</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>41893</v>
+        <v>41603</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>30176</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="35">
@@ -3304,36 +3304,36 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>5381</v>
+        <v>5779</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="n">
-        <v>40340</v>
+        <v>40274</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>64641</v>
+        <v>65154</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>71577</v>
+        <v>72738</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>68610</v>
+        <v>68675</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>18046</v>
+        <v>17986</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>67423</v>
+        <v>67609</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>74387</v>
+        <v>73979</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>71446</v>
+        <v>72439</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>53387</v>
+        <v>53752</v>
       </c>
     </row>
     <row r="36">
@@ -3445,31 +3445,31 @@
         <v>0</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>116389</v>
+        <v>116560</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>297891</v>
+        <v>296351</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>237095</v>
+        <v>236640</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>54731</v>
+        <v>54567</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>255741</v>
+        <v>253176</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>292579</v>
+        <v>293286</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>233052</v>
+        <v>234152</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>179503</v>
+        <v>179486</v>
       </c>
     </row>
     <row r="39">
@@ -3480,40 +3480,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7031</v>
+        <v>7452</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>13266</v>
+        <v>11196</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4678</v>
+        <v>4701</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>156347</v>
+        <v>156497</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>352856</v>
+        <v>352740</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>292585</v>
+        <v>292901</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>79943</v>
+        <v>78894</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>316443</v>
+        <v>316797</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>358528</v>
+        <v>358646</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>300481</v>
+        <v>298417</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>225572</v>
+        <v>227753</v>
       </c>
     </row>
     <row r="40">
